--- a/statistics/R/roiObjectLvl_Within-PLI_gamma_B/roiObjectLvl_Within-PLI_gamma_B.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_gamma_B/roiObjectLvl_Within-PLI_gamma_B.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.00018787314982965375</v>
+        <v>-0.00017221705401049281</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0012442322719002363</v>
+        <v>0.0011405462492419249</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0048294595155415898</v>
+        <v>-0.004427004555913161</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0089170318983983754</v>
+        <v>0.0081739459068651266</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0026928277898774222</v>
+        <v>0.0024684254740543754</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0047359350091885632</v>
+        <v>0.0043412737584228034</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0082796769710666573</v>
+        <v>-0.0075897038901444613</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0086344946410712442</v>
+        <v>0.0079149534209819739</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0070264733034189342</v>
+        <v>-0.0064409338614673517</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0019449149883933037</v>
+        <v>0.0017828387393604983</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.0099423168476877044</v>
+        <v>-0.0091137904437137429</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0061306569642627373</v>
+        <v>-0.0056197688839074444</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0023182082005611671</v>
+        <v>0.0021250241838476625</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0011247297615391838</v>
+        <v>-0.0010310022814108838</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0081481997957970065</v>
+        <v>-0.0074691831461473068</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0058235511134061557</v>
+        <v>0.0053382551872889761</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.0013290344144653576</v>
+        <v>-0.0012182815465932723</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0045878741530915312</v>
+        <v>-0.0042055513070005657</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0095366480459648517</v>
+        <v>-0.0087419273754676674</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0075031163634589337</v>
+        <v>-0.0068778566665040342</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.014575402312648311</v>
+        <v>-0.01336078545326097</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.017753448912869146</v>
+        <v>-0.016273994836796729</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0091639587323729954</v>
+        <v>0.0084002955046752481</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.014594075742645929</v>
+        <v>0.01337790276409212</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.0018473496734366102</v>
+        <v>-0.001693403867316895</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.0016496022807383492</v>
+        <v>-0.0015121354240101303</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.0043148540607602925</v>
+        <v>0.0039552828890303537</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0046227713746895827</v>
+        <v>0.0042375404267988304</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0070368424405691521</v>
+        <v>0.0064504389038550769</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.00068431409011115996</v>
+        <v>-0.00062728791593519295</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.0067627897147347626</v>
+        <v>0.0061992239051735509</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.012649719927097208</v>
+        <v>-0.011595576599839119</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.0014684362510449245</v>
+        <v>-0.0013460665634578706</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.0040753587337437891</v>
+        <v>0.0037357455059318645</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.015120089537791398</v>
+        <v>0.013860082076308844</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.015903787953477383</v>
+        <v>0.014578472290687594</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.00020347846434798367</v>
+        <v>-0.0001865219256522721</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.0050289216955883009</v>
+        <v>-0.0046098448876226161</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.00077373358946858373</v>
+        <v>0.00070925579034622488</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.0012149015772204008</v>
+        <v>0.0011136597791187586</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.017164038282050681</v>
+        <v>-0.01573370175854652</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.0063759794285156712</v>
+        <v>0.0058446478094726917</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.00092344249952949764</v>
+        <v>0.00084648895790195855</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.0055701416951667027</v>
+        <v>-0.0051059632205695538</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.015496133375696358</v>
+        <v>0.014204788927721632</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.0080973891532897802</v>
+        <v>0.0074226067238489513</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.0022317706577182073</v>
+        <v>-0.0020457897695750349</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.0026197740728633179</v>
+        <v>-0.0024014595667913863</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.00035874692432957822</v>
+        <v>0.00032885134730217813</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>0.00054153829897538031</v>
+        <v>0.00049641010739406854</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.010626783918709387</v>
+        <v>0.0097412185921502692</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.0018723695011600983</v>
+        <v>0.001716338709396692</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.0012127457779631534</v>
+        <v>-0.0011116836297995758</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.008114761055937586</v>
+        <v>0.007438530967942808</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.004684204684204718</v>
+        <v>0.0042938542938542879</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.0036388732040905647</v>
+        <v>0.0033356337704164296</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.0015608493869363749</v>
+        <v>-0.0014307786046916793</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.0049077521903608534</v>
+        <v>-0.0044987728411641503</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.0059672815107597588</v>
+        <v>0.0054700080515298066</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.0024041310273193728</v>
+        <v>-0.0022037867750428208</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.0033058093698825897</v>
+        <v>0.0030303252557257465</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.0068676402148422355</v>
+        <v>0.0062953368636053803</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.0086227632811483601</v>
+        <v>-0.0079041996743859505</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.0015066604965265074</v>
+        <v>0.0013811054551493007</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.0070548071380191202</v>
+        <v>-0.0064669065431842004</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0029238072716334107</v>
+        <v>0.0026801566656639159</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.0014437211233550296</v>
+        <v>-0.0013234110297420942</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.0046455193194324118</v>
+        <v>0.0042583927094796692</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.001214539973121237</v>
+        <v>0.0011133283086944279</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.00076149695714911037</v>
+        <v>0.00069803887738664749</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.001279182438602755</v>
+        <v>-0.0011725839020525486</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.0073057716078310797</v>
+        <v>0.006696957307178536</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>0.0055007334510439876</v>
+        <v>0.0050423389967903798</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.0028136785383161833</v>
+        <v>0.0025792053267898463</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.0065756003644202587</v>
+        <v>-0.0060276336673852071</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.010278330610811431</v>
+        <v>0.0094218030599104441</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0065579413405500719</v>
+        <v>-0.0060114462288375359</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.0069782301336978603</v>
+        <v>-0.0063967109558896729</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.012421229812534185</v>
+        <v>0.011386127328156304</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.0029283471312456788</v>
+        <v>-0.0026843182036418722</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.0038821880600239389</v>
+        <v>0.0035586723883552634</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.0061252595577538649</v>
+        <v>-0.0056148212612743831</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0092768172865823895</v>
+        <v>0.0085037491793673314</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.0029933259746924568</v>
+        <v>0.0027438821434680877</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.0048752403824867674</v>
+        <v>-0.0044689703506128331</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.0092717795807040759</v>
+        <v>0.008499131282312028</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.0088471827602262243</v>
+        <v>-0.0081099175302074</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.010900109298278587</v>
+        <v>-0.0099917668567554019</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>0.0030301848483667571</v>
+        <v>0.0027776694443361338</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.0081254431211806033</v>
+        <v>-0.0074483228610822405</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.0019257446793677635</v>
+        <v>0.0017652659560871975</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.0045341331872878476</v>
+        <v>0.0041562887550138095</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.0044604175038957805</v>
+        <v>0.0040887160452378057</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.010392075609466866</v>
+        <v>0.0095260693086779424</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.0074193335062900656</v>
+        <v>-0.006801055714099169</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.0088342153559545222</v>
+        <v>0.0080980307429582843</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.00097227404626336333</v>
+        <v>0.00089125120907479483</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.0030322135094936753</v>
+        <v>-0.0027795290503691977</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.00585755455746928</v>
+        <v>0.0053694250110135344</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.00051216227686821936</v>
+        <v>0.00046948208712919992</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.0030272158636547725</v>
+        <v>0.0027749478750168921</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.0038390660026270673</v>
+        <v>-0.0035191438357414645</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.0001524164050043797</v>
+        <v>-0.00013971503792070683</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>0.00058639131865678706</v>
+        <v>0.00053752537543537426</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.0028328017458452148</v>
+        <v>-0.0025967349336914469</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.0061223157871428263</v>
+        <v>-0.0056121228048808675</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.0048740476747252681</v>
+        <v>0.0044678770351648384</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.0021037868162692985</v>
+        <v>-0.0019284712482468547</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.00075944299546781835</v>
+        <v>0.00069615607917884736</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.00055972195560299864</v>
+        <v>0.000513078459302721</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.00096903901251729763</v>
+        <v>0.0008882857614741918</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.0046986498393148668</v>
+        <v>0.0043070956860385978</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.003654960176699279</v>
+        <v>0.0033503801619743506</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0031353516373612</v>
+        <v>-0.0028740723342477736</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.00049547875634836647</v>
+        <v>-0.00045418885998596559</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.0088690020040134154</v>
+        <v>-0.0081299185036790012</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.010931945714554414</v>
+        <v>0.010020950238341556</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.012826884108348702</v>
+        <v>-0.011757977099319583</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.00093452504779734102</v>
+        <v>-0.00085664796048090519</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.016197624893277085</v>
+        <v>-0.014847822818837356</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.0062047466139537599</v>
+        <v>0.0056876843961242707</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>0.0012725381837700445</v>
+        <v>0.0011664933351225593</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.003869748682001628</v>
+        <v>0.0035472696251681451</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0030345471521942557</v>
+        <v>-0.0027816682228447437</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.00042752278777119512</v>
+        <v>0.0003918958887902807</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.0018780544142863176</v>
+        <v>-0.0017215498797624462</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.014282115731391071</v>
+        <v>-0.013091939420441873</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.0096856717974730111</v>
+        <v>-0.008878532481016943</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.012341058107648462</v>
+        <v>0.011312636598677761</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.00093958789610962268</v>
+        <v>0.00086128890476716569</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.013434888720929933</v>
+        <v>0.01231531466085245</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.009236673918579269</v>
+        <v>0.008466951092031022</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>-0.0040602431906779923</v>
+        <v>-0.0037218895914547939</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0018844688943849691</v>
+        <v>-0.0017274298198528965</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.002420285028980701</v>
+        <v>-0.002218594609898969</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.0032814249061388634</v>
+        <v>0.0030079728306272591</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>-0.010132676036566202</v>
+        <v>-0.0092882863668523608</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.0010382235782693261</v>
+        <v>0.00095170494674690076</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.00041903115366381805</v>
+        <v>-0.0003841118908585045</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.0043357869444826114</v>
+        <v>0.0039744713657757086</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.00018228279097842748</v>
+        <v>0.00016709255839690573</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.0017778930822408834</v>
+        <v>0.001629735325387488</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.00065349252249310985</v>
+        <v>-0.00059903481228534838</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.0023398433724520773</v>
+        <v>-0.0021448564247477098</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.013154592674043453</v>
+        <v>0.012058376617873179</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.0015391207937791584</v>
+        <v>-0.001410860727630886</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0068044904710796161</v>
+        <v>0.0062374495984896805</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.0075814993322756846</v>
+        <v>0.0069497077212527236</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.005662949503529191</v>
+        <v>0.0051910370449017723</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>0.0035712132898833016</v>
+        <v>0.0032736121823930819</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.0026107463178401541</v>
+        <v>-0.002393184124686823</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.0048331651115785385</v>
+        <v>-0.0044304013522803165</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.0035639737503091462</v>
+        <v>0.003266975937783384</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.002964850790937737</v>
+        <v>0.0027177798916929452</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0067147023668763101</v>
+        <v>-0.0061551438363032368</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.0035922427226774967</v>
+        <v>-0.0032928891624543766</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.0020942691232546107</v>
+        <v>0.0019197466963167542</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.0059986490561525357</v>
+        <v>-0.0054987616348064899</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.0065136188324594196</v>
+        <v>-0.0059708172630877909</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0039479757647459257</v>
+        <v>-0.0036189777843504412</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.0051891962531113028</v>
+        <v>0.0047567632320186931</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>0.0049351756512882317</v>
+        <v>0.0045239110136808397</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.0020035266030689614</v>
+        <v>0.0018365660528131961</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.0045633306502871757</v>
+        <v>0.004183053096096595</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.0012443508820320637</v>
+        <v>0.0011406549751960399</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.0049006011113966186</v>
+        <v>-0.004492217685446942</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.0018097471513620345</v>
+        <v>0.0016589348887485478</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0023272849359805836</v>
+        <v>-0.0021333445246488614</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.0095828182784704619</v>
+        <v>0.008784250088597928</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.00011369359195445572</v>
+        <v>-0.00010421912595823257</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.011251228642532946</v>
+        <v>0.010313626255655239</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.0021383467035640813</v>
+        <v>0.0019601511449337805</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>-0.0061296191730973726</v>
+        <v>-0.0056188175753392883</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.00074517294196929651</v>
+        <v>-0.00068307519680517459</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiObjectLvl_Within-PLI_gamma_B/roiObjectLvl_Within-PLI_gamma_B.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_gamma_B/roiObjectLvl_Within-PLI_gamma_B.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.00017221705401049281</v>
+        <v>-0.00018787314982965375</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0011405462492419249</v>
+        <v>0.0012442322719002363</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.004427004555913161</v>
+        <v>-0.0048294595155415898</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0081739459068651266</v>
+        <v>0.0089170318983983754</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0024684254740543754</v>
+        <v>0.0026928277898774222</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0043412737584228034</v>
+        <v>0.0047359350091885632</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.0075897038901444613</v>
+        <v>-0.0082796769710666573</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0079149534209819739</v>
+        <v>0.0086344946410712442</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.0064409338614673517</v>
+        <v>-0.0070264733034189342</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0017828387393604983</v>
+        <v>0.0019449149883933037</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.0091137904437137429</v>
+        <v>-0.0099423168476877044</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0056197688839074444</v>
+        <v>-0.0061306569642627373</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0021250241838476625</v>
+        <v>0.0023182082005611671</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0010310022814108838</v>
+        <v>-0.0011247297615391838</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.0074691831461473068</v>
+        <v>-0.0081481997957970065</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0053382551872889761</v>
+        <v>0.0058235511134061557</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.0012182815465932723</v>
+        <v>-0.0013290344144653576</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0042055513070005657</v>
+        <v>-0.0045878741530915312</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0087419273754676674</v>
+        <v>-0.0095366480459648517</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.0068778566665040342</v>
+        <v>-0.0075031163634589337</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.01336078545326097</v>
+        <v>-0.014575402312648311</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.016273994836796729</v>
+        <v>-0.017753448912869146</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0084002955046752481</v>
+        <v>0.0091639587323729954</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.01337790276409212</v>
+        <v>0.014594075742645929</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.001693403867316895</v>
+        <v>-0.0018473496734366102</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.0015121354240101303</v>
+        <v>-0.0016496022807383492</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.0039552828890303537</v>
+        <v>0.0043148540607602925</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0042375404267988304</v>
+        <v>0.0046227713746895827</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.0064504389038550769</v>
+        <v>0.0070368424405691521</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.00062728791593519295</v>
+        <v>-0.00068431409011115996</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.0061992239051735509</v>
+        <v>0.0067627897147347626</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.011595576599839119</v>
+        <v>-0.012649719927097208</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.0013460665634578706</v>
+        <v>-0.0014684362510449245</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.0037357455059318645</v>
+        <v>0.0040753587337437891</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.013860082076308844</v>
+        <v>0.015120089537791398</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>0.014578472290687594</v>
+        <v>0.015903787953477383</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.0001865219256522721</v>
+        <v>-0.00020347846434798367</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.0046098448876226161</v>
+        <v>-0.0050289216955883009</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.00070925579034622488</v>
+        <v>0.00077373358946858373</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.0011136597791187586</v>
+        <v>0.0012149015772204008</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.01573370175854652</v>
+        <v>-0.017164038282050681</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.0058446478094726917</v>
+        <v>0.0063759794285156712</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>0.00084648895790195855</v>
+        <v>0.00092344249952949764</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.0051059632205695538</v>
+        <v>-0.0055701416951667027</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>0.014204788927721632</v>
+        <v>0.015496133375696358</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>0.0074226067238489513</v>
+        <v>0.0080973891532897802</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.0020457897695750349</v>
+        <v>-0.0022317706577182073</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.0024014595667913863</v>
+        <v>-0.0026197740728633179</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.00032885134730217813</v>
+        <v>0.00035874692432957822</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>0.00049641010739406854</v>
+        <v>0.00054153829897538031</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.0097412185921502692</v>
+        <v>0.010626783918709387</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.001716338709396692</v>
+        <v>0.0018723695011600983</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.0011116836297995758</v>
+        <v>-0.0012127457779631534</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.007438530967942808</v>
+        <v>0.008114761055937586</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.0042938542938542879</v>
+        <v>0.004684204684204718</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.0033356337704164296</v>
+        <v>0.0036388732040905647</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.0014307786046916793</v>
+        <v>-0.0015608493869363749</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.0044987728411641503</v>
+        <v>-0.0049077521903608534</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>0.0054700080515298066</v>
+        <v>0.0059672815107597588</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.0022037867750428208</v>
+        <v>-0.0024041310273193728</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>0.0030303252557257465</v>
+        <v>0.0033058093698825897</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.0062953368636053803</v>
+        <v>0.0068676402148422355</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.0079041996743859505</v>
+        <v>-0.0086227632811483601</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.0013811054551493007</v>
+        <v>0.0015066604965265074</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.0064669065431842004</v>
+        <v>-0.0070548071380191202</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.0026801566656639159</v>
+        <v>0.0029238072716334107</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.0013234110297420942</v>
+        <v>-0.0014437211233550296</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>0.0042583927094796692</v>
+        <v>0.0046455193194324118</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.0011133283086944279</v>
+        <v>0.001214539973121237</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>0.00069803887738664749</v>
+        <v>0.00076149695714911037</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.0011725839020525486</v>
+        <v>-0.001279182438602755</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>0.006696957307178536</v>
+        <v>0.0073057716078310797</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>0.0050423389967903798</v>
+        <v>0.0055007334510439876</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.0025792053267898463</v>
+        <v>0.0028136785383161833</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.0060276336673852071</v>
+        <v>-0.0065756003644202587</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>0.0094218030599104441</v>
+        <v>0.010278330610811431</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.0060114462288375359</v>
+        <v>-0.0065579413405500719</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.0063967109558896729</v>
+        <v>-0.0069782301336978603</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.011386127328156304</v>
+        <v>0.012421229812534185</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.0026843182036418722</v>
+        <v>-0.0029283471312456788</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>0.0035586723883552634</v>
+        <v>0.0038821880600239389</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.0056148212612743831</v>
+        <v>-0.0061252595577538649</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0085037491793673314</v>
+        <v>0.0092768172865823895</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>0.0027438821434680877</v>
+        <v>0.0029933259746924568</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.0044689703506128331</v>
+        <v>-0.0048752403824867674</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.008499131282312028</v>
+        <v>0.0092717795807040759</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.0081099175302074</v>
+        <v>-0.0088471827602262243</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.0099917668567554019</v>
+        <v>-0.010900109298278587</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>0.0027776694443361338</v>
+        <v>0.0030301848483667571</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.0074483228610822405</v>
+        <v>-0.0081254431211806033</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>0.0017652659560871975</v>
+        <v>0.0019257446793677635</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>0.0041562887550138095</v>
+        <v>0.0045341331872878476</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>0.0040887160452378057</v>
+        <v>0.0044604175038957805</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>0.0095260693086779424</v>
+        <v>0.010392075609466866</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.006801055714099169</v>
+        <v>-0.0074193335062900656</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>0.0080980307429582843</v>
+        <v>0.0088342153559545222</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>0.00089125120907479483</v>
+        <v>0.00097227404626336333</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.0027795290503691977</v>
+        <v>-0.0030322135094936753</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.0053694250110135344</v>
+        <v>0.00585755455746928</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.00046948208712919992</v>
+        <v>0.00051216227686821936</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.0027749478750168921</v>
+        <v>0.0030272158636547725</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.0035191438357414645</v>
+        <v>-0.0038390660026270673</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.00013971503792070683</v>
+        <v>-0.0001524164050043797</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>0.00053752537543537426</v>
+        <v>0.00058639131865678706</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.0025967349336914469</v>
+        <v>-0.0028328017458452148</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.0056121228048808675</v>
+        <v>-0.0061223157871428263</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>0.0044678770351648384</v>
+        <v>0.0048740476747252681</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.0019284712482468547</v>
+        <v>-0.0021037868162692985</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.00069615607917884736</v>
+        <v>0.00075944299546781835</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.000513078459302721</v>
+        <v>0.00055972195560299864</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.0008882857614741918</v>
+        <v>0.00096903901251729763</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.0043070956860385978</v>
+        <v>0.0046986498393148668</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>0.0033503801619743506</v>
+        <v>0.003654960176699279</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.0028740723342477736</v>
+        <v>-0.0031353516373612</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.00045418885998596559</v>
+        <v>-0.00049547875634836647</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.0081299185036790012</v>
+        <v>-0.0088690020040134154</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>0.010020950238341556</v>
+        <v>0.010931945714554414</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.011757977099319583</v>
+        <v>-0.012826884108348702</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.00085664796048090519</v>
+        <v>-0.00093452504779734102</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.014847822818837356</v>
+        <v>-0.016197624893277085</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.0056876843961242707</v>
+        <v>0.0062047466139537599</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>0.0011664933351225593</v>
+        <v>0.0012725381837700445</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.0035472696251681451</v>
+        <v>0.003869748682001628</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0027816682228447437</v>
+        <v>-0.0030345471521942557</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0003918958887902807</v>
+        <v>0.00042752278777119512</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.0017215498797624462</v>
+        <v>-0.0018780544142863176</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.013091939420441873</v>
+        <v>-0.014282115731391071</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.008878532481016943</v>
+        <v>-0.0096856717974730111</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.011312636598677761</v>
+        <v>0.012341058107648462</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.00086128890476716569</v>
+        <v>0.00093958789610962268</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.01231531466085245</v>
+        <v>0.013434888720929933</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.008466951092031022</v>
+        <v>0.009236673918579269</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>-0.0037218895914547939</v>
+        <v>-0.0040602431906779923</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.0017274298198528965</v>
+        <v>-0.0018844688943849691</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.002218594609898969</v>
+        <v>-0.002420285028980701</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.0030079728306272591</v>
+        <v>0.0032814249061388634</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>-0.0092882863668523608</v>
+        <v>-0.010132676036566202</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>0.00095170494674690076</v>
+        <v>0.0010382235782693261</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.0003841118908585045</v>
+        <v>-0.00041903115366381805</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.0039744713657757086</v>
+        <v>0.0043357869444826114</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.00016709255839690573</v>
+        <v>0.00018228279097842748</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.001629735325387488</v>
+        <v>0.0017778930822408834</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.00059903481228534838</v>
+        <v>-0.00065349252249310985</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.0021448564247477098</v>
+        <v>-0.0023398433724520773</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>0.012058376617873179</v>
+        <v>0.013154592674043453</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>-0.001410860727630886</v>
+        <v>-0.0015391207937791584</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>0.0062374495984896805</v>
+        <v>0.0068044904710796161</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.0069497077212527236</v>
+        <v>0.0075814993322756846</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.0051910370449017723</v>
+        <v>0.005662949503529191</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>0.0032736121823930819</v>
+        <v>0.0035712132898833016</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.002393184124686823</v>
+        <v>-0.0026107463178401541</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.0044304013522803165</v>
+        <v>-0.0048331651115785385</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.003266975937783384</v>
+        <v>0.0035639737503091462</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.0027177798916929452</v>
+        <v>0.002964850790937737</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.0061551438363032368</v>
+        <v>-0.0067147023668763101</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>-0.0032928891624543766</v>
+        <v>-0.0035922427226774967</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.0019197466963167542</v>
+        <v>0.0020942691232546107</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.0054987616348064899</v>
+        <v>-0.0059986490561525357</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.0059708172630877909</v>
+        <v>-0.0065136188324594196</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0036189777843504412</v>
+        <v>-0.0039479757647459257</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.0047567632320186931</v>
+        <v>0.0051891962531113028</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>0.0045239110136808397</v>
+        <v>0.0049351756512882317</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>0.0018365660528131961</v>
+        <v>0.0020035266030689614</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.004183053096096595</v>
+        <v>0.0045633306502871757</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>0.0011406549751960399</v>
+        <v>0.0012443508820320637</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.004492217685446942</v>
+        <v>-0.0049006011113966186</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>0.0016589348887485478</v>
+        <v>0.0018097471513620345</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0021333445246488614</v>
+        <v>-0.0023272849359805836</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.008784250088597928</v>
+        <v>0.0095828182784704619</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.00010421912595823257</v>
+        <v>-0.00011369359195445572</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>0.010313626255655239</v>
+        <v>0.011251228642532946</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>0.0019601511449337805</v>
+        <v>0.0021383467035640813</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>-0.0056188175753392883</v>
+        <v>-0.0061296191730973726</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.00068307519680517459</v>
+        <v>-0.00074517294196929651</v>
       </c>
     </row>
   </sheetData>
